--- a/experiment/RUN_ME/stimuli/word_lists/nat_primes.xlsx
+++ b/experiment/RUN_ME/stimuli/word_lists/nat_primes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\experiment\RUN_ME\stimuli\word_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB0B39-AE5B-4111-A1F6-5E4BCA323FFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1CB51EB-074E-4F4F-B4EB-A71745494C7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{25873CA1-DFA5-4DF0-B759-0DC95CE9A801}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="18900" windowHeight="11055" xr2:uid="{25873CA1-DFA5-4DF0-B759-0DC95CE9A801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="30">
   <si>
     <t>אבטיח</t>
   </si>
@@ -50,18 +50,12 @@
     <t>חרגול</t>
   </si>
   <si>
-    <t>כוורת</t>
-  </si>
-  <si>
     <t>מטאור</t>
   </si>
   <si>
     <t>עצמות</t>
   </si>
   <si>
-    <t>פיסגה</t>
-  </si>
-  <si>
     <t>פירות</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>סלעים</t>
   </si>
   <si>
-    <t>צללים</t>
-  </si>
-  <si>
     <t>אפרסק</t>
   </si>
   <si>
@@ -126,6 +117,15 @@
   </si>
   <si>
     <t>אתרוג</t>
+  </si>
+  <si>
+    <t>ירקות</t>
+  </si>
+  <si>
+    <t>שבתאי</t>
+  </si>
+  <si>
+    <t>תמרים</t>
   </si>
 </sst>
 </file>
@@ -495,15 +495,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="30" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.25">
@@ -511,25 +513,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -538,64 +540,64 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -608,24 +610,21 @@
       <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="R2" t="s">
         <v>0</v>
       </c>
-      <c r="T2" t="s">
-        <v>0</v>
-      </c>
       <c r="U2" t="s">
         <v>0</v>
       </c>
       <c r="W2" t="s">
         <v>0</v>
       </c>
+      <c r="X2" t="s">
+        <v>0</v>
+      </c>
       <c r="Z2" t="s">
         <v>0</v>
       </c>
@@ -641,240 +640,228 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V4" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AD4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AB5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AD5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V6" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R7" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="X7" t="s">
+        <v>13</v>
       </c>
       <c r="Z7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -884,6 +871,9 @@
       <c r="D8" t="s">
         <v>1</v>
       </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
       <c r="M8" t="s">
         <v>1</v>
       </c>
@@ -902,9 +892,6 @@
       <c r="T8" t="s">
         <v>1</v>
       </c>
-      <c r="X8" t="s">
-        <v>1</v>
-      </c>
       <c r="Y8" t="s">
         <v>1</v>
       </c>
@@ -917,49 +904,43 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V9" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AD9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -1005,13 +986,13 @@
       <c r="S10" t="s">
         <v>2</v>
       </c>
+      <c r="T10" t="s">
+        <v>2</v>
+      </c>
       <c r="U10" t="s">
         <v>2</v>
       </c>
       <c r="W10" t="s">
-        <v>2</v>
-      </c>
-      <c r="X10" t="s">
         <v>2</v>
       </c>
       <c r="Y10" t="s">
@@ -1058,9 +1039,6 @@
       <c r="T11" t="s">
         <v>3</v>
       </c>
-      <c r="X11" t="s">
-        <v>3</v>
-      </c>
       <c r="Y11" t="s">
         <v>3</v>
       </c>
@@ -1072,994 +1050,970 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
       </c>
       <c r="P12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="Q12" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="R12" t="s">
+        <v>28</v>
       </c>
       <c r="S12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="T12" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="U12" t="s">
+        <v>28</v>
       </c>
       <c r="V12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="W12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="X12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="Z12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="AA12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="AB12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="AC12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R14" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W14" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="X14" t="s">
+        <v>14</v>
       </c>
       <c r="Z14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R15" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W16" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="X16" t="s">
+        <v>16</v>
       </c>
       <c r="Z16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AB16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R17" t="s">
-        <v>25</v>
-      </c>
-      <c r="T17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W17" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="X17" t="s">
+        <v>23</v>
       </c>
       <c r="Z17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W18" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="X18" t="s">
+        <v>17</v>
       </c>
       <c r="Z18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
       </c>
       <c r="M19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V19" t="s">
-        <v>6</v>
-      </c>
-      <c r="X19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
-      </c>
-      <c r="T20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="W20" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="X20" t="s">
+        <v>18</v>
       </c>
       <c r="Z20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
       <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="L21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" t="s">
-        <v>7</v>
-      </c>
-      <c r="P21" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="R21" t="s">
-        <v>7</v>
-      </c>
-      <c r="S21" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="W21" t="s">
+        <v>29</v>
       </c>
       <c r="X21" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="K22" t="s">
+        <v>6</v>
       </c>
       <c r="M22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S22" t="s">
-        <v>8</v>
-      </c>
-      <c r="X22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S24" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="T24" t="s">
+        <v>7</v>
       </c>
       <c r="V24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>26</v>
+      <c r="A25" t="s">
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" t="s">
-        <v>26</v>
-      </c>
-      <c r="R25" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" t="s">
+        <v>27</v>
       </c>
       <c r="T25" t="s">
-        <v>26</v>
-      </c>
-      <c r="U25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R26" t="s">
-        <v>22</v>
-      </c>
-      <c r="T26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U26" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="X26" t="s">
+        <v>20</v>
       </c>
       <c r="AA26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S27" t="s">
-        <v>10</v>
-      </c>
-      <c r="T27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V27" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="X27" t="s">
+        <v>8</v>
       </c>
       <c r="AA27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S28" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="T28" t="s">
+        <v>9</v>
       </c>
       <c r="V28" t="s">
-        <v>11</v>
-      </c>
-      <c r="X28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S29" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="T29" t="s">
+        <v>10</v>
       </c>
       <c r="V29" t="s">
-        <v>12</v>
-      </c>
-      <c r="X29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S30" t="s">
-        <v>13</v>
-      </c>
-      <c r="X30" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="T30" t="s">
+        <v>11</v>
       </c>
       <c r="Y30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R31" t="s">
-        <v>23</v>
-      </c>
-      <c r="T31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W31" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="X31" t="s">
+        <v>21</v>
       </c>
       <c r="Z31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
